--- a/Excel/DEMCharacter.xlsx
+++ b/Excel/DEMCharacter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AAB85B-8932-4331-A390-0D9DED2F0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A364C-A511-41A4-AF4F-8A68A30E9C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
@@ -442,28 +442,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -784,7 +763,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -847,7 +826,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>8010001</v>
+        <v>4010001</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>15</v>
@@ -889,7 +868,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:M4">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/DEMCharacter.xlsx
+++ b/Excel/DEMCharacter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A364C-A511-41A4-AF4F-8A68A30E9C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F3F15-CF4C-4844-AE25-F2C750ED6468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="29010" windowHeight="15435" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMCharacter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Factor Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -61,22 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEMCharaterName</t>
-  </si>
-  <si>
-    <t>DEMCharaterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEMCharater_Test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,11 +92,6 @@
   </si>
   <si>
     <t>캐릭터 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameText 테이블
-- ID 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,6 +175,18 @@
   </si>
   <si>
     <t>DEMEquipBaseOption_1</t>
+  </si>
+  <si>
+    <t>테스트 팬치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,37 +787,37 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -829,13 +825,13 @@
         <v>4010001</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="16">
         <v>3211001</v>
@@ -880,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
   <dimension ref="A4:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,161 +909,161 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="20"/>
     </row>
